--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>LF_A</t>
+  </si>
+  <si>
+    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -380,31 +383,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>-41.11852403332654</v>
+        <v>-19.16832434717481</v>
+      </c>
+      <c r="C2">
+        <v>0.5501211515605676</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0001403876445589258</v>
+        <v>1.455823315943405E-05</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>LF_A</t>
-  </si>
-  <si>
-    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -383,40 +380,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>-25.28789663750221</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>-19.16832434717481</v>
-      </c>
-      <c r="C2">
-        <v>0.5501211515605676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B3">
-        <v>1.455823315943405E-05</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>6.545368764321324E-06</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>LF_A</t>
+  </si>
+  <si>
+    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -380,31 +383,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>-25.28789663750221</v>
+        <v>-14.70537446157808</v>
+      </c>
+      <c r="C2">
+        <v>0.2652217004434586</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>6.545368764321324E-06</v>
+        <v>2.801747349456818E-06</v>
+      </c>
+      <c r="C3">
+        <v>1.554312234475219E-15</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
@@ -19,7 +19,7 @@
     <t>LF_A</t>
   </si>
   <si>
-    <t>LF_FFR</t>
+    <t>LF_C</t>
   </si>
   <si>
     <t>params</t>
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-14.70537446157808</v>
+        <v>-30.22662239492422</v>
       </c>
       <c r="C2">
-        <v>0.2652217004434586</v>
+        <v>-9.112975023283425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.801747349456818E-06</v>
+        <v>1.662652948652976E-08</v>
       </c>
       <c r="C3">
-        <v>1.554312234475219E-15</v>
+        <v>0.2087492853876425</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-12-31-2008-09-30.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>LF_A</t>
+    <t>A_V</t>
   </si>
   <si>
     <t>LF_C</t>
+  </si>
+  <si>
+    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -383,40 +386,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-30.22662239492422</v>
+        <v>-0.003229338342638138</v>
       </c>
       <c r="C2">
-        <v>-9.112975023283425</v>
+        <v>-8.802564485349039</v>
+      </c>
+      <c r="D2">
+        <v>0.1641056535089401</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1.662652948652976E-08</v>
+        <v>0.5943035676676558</v>
       </c>
       <c r="C3">
-        <v>0.2087492853876425</v>
+        <v>0.01310948737059503</v>
+      </c>
+      <c r="D3">
+        <v>2.127116260908224E-10</v>
       </c>
     </row>
   </sheetData>
